--- a/LuBan/Datas/__tables__.xlsx
+++ b/LuBan/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30470" windowHeight="15370"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>E_Effect.xlsx</t>
+  </si>
+  <si>
+    <t>Status.StatusTable</t>
+  </si>
+  <si>
+    <t>StatusConfig</t>
+  </si>
+  <si>
+    <t>S_Status.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1082,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="20.3833333333333" style="2" customWidth="1"/>
@@ -1231,6 +1240,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LuBan/Datas/__tables__.xlsx
+++ b/LuBan/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -118,22 +118,13 @@
     <t>S_Skill.xlsx</t>
   </si>
   <si>
-    <t>Skill.SkillEffectTable</t>
-  </si>
-  <si>
-    <t>SkillEffectConfig</t>
+    <t>Effect.EffectTable</t>
+  </si>
+  <si>
+    <t>EffectConfig</t>
   </si>
   <si>
     <t>E_Effect.xlsx</t>
-  </si>
-  <si>
-    <t>Status.StatusTable</t>
-  </si>
-  <si>
-    <t>StatusConfig</t>
-  </si>
-  <si>
-    <t>S_Status.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="20.3833333333333" style="2" customWidth="1"/>
@@ -1240,20 +1231,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LuBan/Datas/__tables__.xlsx
+++ b/LuBan/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>E_Effect.xlsx</t>
+  </si>
+  <si>
+    <t>Condition.ConditionTable</t>
+  </si>
+  <si>
+    <t>ConditionConfig</t>
+  </si>
+  <si>
+    <t>C_Condition.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1082,16 +1091,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="20.3833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="51.9166666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.3833333333333" style="2" customWidth="1"/>
@@ -1231,6 +1240,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
